--- a/src/excel/ColumnByID.xlsx
+++ b/src/excel/ColumnByID.xlsx
@@ -44,19 +44,19 @@
     <t xml:space="preserve">updatedAt</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todo 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dang lam 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue Jun 21 2022 16:04:10 GMT+0700 (Indochina Time)</t>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todo hihi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dang lam hihi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wed Jun 22 2022 16:57:57 GMT+0700 (Indochina Time)</t>
   </si>
 </sst>
 </file>
